--- a/items/complete_image_jpg1.xlsx
+++ b/items/complete_image_jpg1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maik/Library/Mobile Documents/com~apple~CloudDocs/Studium/xx. Python/GUI_experiment/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EC1315-B00F-2D4A-AA4B-5F03759CDB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F33F81C-4232-C64E-8D4C-B18A022464AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1404,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,10 +1444,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1484,10 +1484,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1524,10 +1524,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
